--- a/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
+++ b/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC0A4E-CA48-4760-920D-64828DA66A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فملی-ملی‌ صنایع‌ مس‌ ایران‌</t>
@@ -36,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -66,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-04-30</t>
-  </si>
-  <si>
-    <t>1399-10-15 (2)</t>
-  </si>
-  <si>
-    <t>1399-11-08 (2)</t>
-  </si>
-  <si>
-    <t>1401-04-18 (12)</t>
-  </si>
-  <si>
-    <t>1400-05-20 (3)</t>
-  </si>
-  <si>
-    <t>1400-09-15 (2)</t>
-  </si>
-  <si>
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-15 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -249,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -459,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -506,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,23 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -716,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -762,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -778,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -794,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -808,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -894,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -910,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>51393621</v>
+        <v>82804067</v>
       </c>
       <c r="E12" s="15">
-        <v>41295577</v>
+        <v>33040302</v>
       </c>
       <c r="F12" s="15">
-        <v>29274582</v>
+        <v>68691708</v>
       </c>
       <c r="G12" s="15">
-        <v>29825975</v>
+        <v>136249979</v>
       </c>
       <c r="H12" s="15">
-        <v>12379314</v>
-      </c>
-      <c r="I12" s="15">
-        <v>60094972</v>
-      </c>
-      <c r="J12" s="15">
-        <v>82804067</v>
-      </c>
-      <c r="K12" s="15">
-        <v>33040302</v>
-      </c>
-      <c r="L12" s="15">
-        <v>68691708</v>
-      </c>
-      <c r="M12" s="15">
-        <v>133925269</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>76879187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>9423520</v>
+        <v>25047595</v>
       </c>
       <c r="E13" s="11">
-        <v>48269153</v>
+        <v>43052681</v>
       </c>
       <c r="F13" s="11">
-        <v>57820036</v>
+        <v>60130227</v>
       </c>
       <c r="G13" s="11">
-        <v>59249371</v>
+        <v>207854061</v>
       </c>
       <c r="H13" s="11">
-        <v>54755242</v>
-      </c>
-      <c r="I13" s="11">
-        <v>24819564</v>
-      </c>
-      <c r="J13" s="11">
-        <v>25047595</v>
-      </c>
-      <c r="K13" s="11">
-        <v>43052681</v>
-      </c>
-      <c r="L13" s="11">
-        <v>60130227</v>
-      </c>
-      <c r="M13" s="11">
-        <v>68799799</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>33458012</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>72552231</v>
+        <v>367032536</v>
       </c>
       <c r="E14" s="15">
-        <v>81473318</v>
+        <v>414775219</v>
       </c>
       <c r="F14" s="15">
-        <v>128488745</v>
+        <v>429714192</v>
       </c>
       <c r="G14" s="15">
-        <v>158167936</v>
+        <v>315216414</v>
       </c>
       <c r="H14" s="15">
-        <v>232743801</v>
-      </c>
-      <c r="I14" s="15">
-        <v>340458815</v>
-      </c>
-      <c r="J14" s="15">
-        <v>367032536</v>
-      </c>
-      <c r="K14" s="15">
-        <v>414775219</v>
-      </c>
-      <c r="L14" s="15">
-        <v>429714192</v>
-      </c>
-      <c r="M14" s="15">
-        <v>361630501</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>361049059</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>56523903</v>
+        <v>65122167</v>
       </c>
       <c r="E15" s="11">
-        <v>54843212</v>
+        <v>89133152</v>
       </c>
       <c r="F15" s="11">
-        <v>64400764</v>
+        <v>99573375</v>
       </c>
       <c r="G15" s="11">
-        <v>76156647</v>
+        <v>111440446</v>
       </c>
       <c r="H15" s="11">
-        <v>99129744</v>
-      </c>
-      <c r="I15" s="11">
-        <v>92280516</v>
-      </c>
-      <c r="J15" s="11">
-        <v>65122167</v>
-      </c>
-      <c r="K15" s="11">
-        <v>89133152</v>
-      </c>
-      <c r="L15" s="11">
-        <v>99573375</v>
-      </c>
-      <c r="M15" s="11">
-        <v>111637761</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>135307572</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>15627034</v>
+        <v>59421416</v>
       </c>
       <c r="E16" s="15">
-        <v>16276631</v>
+        <v>26624770</v>
       </c>
       <c r="F16" s="15">
-        <v>24672261</v>
+        <v>77247795</v>
       </c>
       <c r="G16" s="15">
-        <v>11651375</v>
+        <v>50115262</v>
       </c>
       <c r="H16" s="15">
-        <v>39263070</v>
-      </c>
-      <c r="I16" s="15">
-        <v>28180093</v>
-      </c>
-      <c r="J16" s="15">
-        <v>59421416</v>
-      </c>
-      <c r="K16" s="15">
-        <v>26624770</v>
-      </c>
-      <c r="L16" s="15">
-        <v>77247795</v>
-      </c>
-      <c r="M16" s="15">
-        <v>50252772</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>54019367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1116,133 +969,73 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>205520309</v>
+        <v>599427781</v>
       </c>
       <c r="E18" s="17">
-        <v>242157891</v>
+        <v>606626124</v>
       </c>
       <c r="F18" s="17">
-        <v>304656388</v>
+        <v>735357297</v>
       </c>
       <c r="G18" s="17">
-        <v>335051304</v>
+        <v>820876162</v>
       </c>
       <c r="H18" s="17">
-        <v>438271171</v>
-      </c>
-      <c r="I18" s="17">
-        <v>545833960</v>
-      </c>
-      <c r="J18" s="17">
-        <v>599427781</v>
-      </c>
-      <c r="K18" s="17">
-        <v>606626124</v>
-      </c>
-      <c r="L18" s="17">
-        <v>735357297</v>
-      </c>
-      <c r="M18" s="17">
-        <v>726246102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>660713197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4844258</v>
+        <v>5521975</v>
       </c>
       <c r="E19" s="11">
-        <v>3546925</v>
+        <v>28288010</v>
       </c>
       <c r="F19" s="11">
-        <v>3546925</v>
+        <v>28288010</v>
       </c>
       <c r="G19" s="11">
-        <v>5521975</v>
+        <v>24650725</v>
       </c>
       <c r="H19" s="11">
-        <v>5009250</v>
-      </c>
-      <c r="I19" s="11">
-        <v>4535250</v>
-      </c>
-      <c r="J19" s="11">
-        <v>5521975</v>
-      </c>
-      <c r="K19" s="11">
         <v>28288010</v>
       </c>
-      <c r="L19" s="11">
-        <v>28288010</v>
-      </c>
-      <c r="M19" s="11">
-        <v>24650725</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>31813153</v>
+        <v>243509805</v>
       </c>
       <c r="E20" s="15">
-        <v>75316061</v>
+        <v>234841068</v>
       </c>
       <c r="F20" s="15">
-        <v>92134460</v>
+        <v>253740251</v>
       </c>
       <c r="G20" s="15">
-        <v>88533049</v>
+        <v>216789721</v>
       </c>
       <c r="H20" s="15">
-        <v>110152364</v>
-      </c>
-      <c r="I20" s="15">
-        <v>141849105</v>
-      </c>
-      <c r="J20" s="15">
-        <v>243509805</v>
-      </c>
-      <c r="K20" s="15">
-        <v>234841068</v>
-      </c>
-      <c r="L20" s="15">
-        <v>253740251</v>
-      </c>
-      <c r="M20" s="15">
-        <v>307915615</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>243403716</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1260,241 +1053,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>120678167</v>
+        <v>203633448</v>
       </c>
       <c r="E22" s="15">
-        <v>129030057</v>
+        <v>229058417</v>
       </c>
       <c r="F22" s="15">
-        <v>140295364</v>
+        <v>249236219</v>
       </c>
       <c r="G22" s="15">
-        <v>159765366</v>
+        <v>284150357</v>
       </c>
       <c r="H22" s="15">
-        <v>168780785</v>
-      </c>
-      <c r="I22" s="15">
-        <v>183179523</v>
-      </c>
-      <c r="J22" s="15">
-        <v>203633448</v>
-      </c>
-      <c r="K22" s="15">
-        <v>229058417</v>
-      </c>
-      <c r="L22" s="15">
-        <v>249236219</v>
-      </c>
-      <c r="M22" s="15">
-        <v>266419958</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>313898847</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>846099</v>
+        <v>986213</v>
       </c>
       <c r="E23" s="11">
-        <v>832546</v>
+        <v>979752</v>
       </c>
       <c r="F23" s="11">
-        <v>824769</v>
+        <v>975647</v>
       </c>
       <c r="G23" s="11">
-        <v>970516</v>
+        <v>970156</v>
       </c>
       <c r="H23" s="11">
-        <v>965946</v>
-      </c>
-      <c r="I23" s="11">
-        <v>953813</v>
-      </c>
-      <c r="J23" s="11">
-        <v>986213</v>
-      </c>
-      <c r="K23" s="11">
-        <v>979752</v>
-      </c>
-      <c r="L23" s="11">
-        <v>975647</v>
-      </c>
-      <c r="M23" s="11">
-        <v>970157</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>969118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>2957011</v>
+        <v>4793898</v>
       </c>
       <c r="E25" s="11">
-        <v>741586</v>
+        <v>3324536</v>
       </c>
       <c r="F25" s="11">
-        <v>1679878</v>
+        <v>3344516</v>
       </c>
       <c r="G25" s="11">
-        <v>2198902</v>
+        <v>3615896</v>
       </c>
       <c r="H25" s="11">
-        <v>2690310</v>
-      </c>
-      <c r="I25" s="11">
-        <v>4361906</v>
-      </c>
-      <c r="J25" s="11">
-        <v>4793898</v>
-      </c>
-      <c r="K25" s="11">
-        <v>3324536</v>
-      </c>
-      <c r="L25" s="11">
-        <v>3344516</v>
-      </c>
-      <c r="M25" s="11">
-        <v>3573021</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4102050</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>161138688</v>
+        <v>458445339</v>
       </c>
       <c r="E26" s="17">
-        <v>209467175</v>
+        <v>496491783</v>
       </c>
       <c r="F26" s="17">
-        <v>238481396</v>
+        <v>535584643</v>
       </c>
       <c r="G26" s="17">
-        <v>256989808</v>
+        <v>530176855</v>
       </c>
       <c r="H26" s="17">
-        <v>287598655</v>
-      </c>
-      <c r="I26" s="17">
-        <v>334879597</v>
-      </c>
-      <c r="J26" s="17">
-        <v>458445339</v>
-      </c>
-      <c r="K26" s="17">
-        <v>496491783</v>
-      </c>
-      <c r="L26" s="17">
-        <v>535584643</v>
-      </c>
-      <c r="M26" s="17">
-        <v>603529476</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>590661741</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>366658997</v>
+        <v>1057873120</v>
       </c>
       <c r="E27" s="19">
-        <v>451625066</v>
+        <v>1103117907</v>
       </c>
       <c r="F27" s="19">
-        <v>543137784</v>
+        <v>1270941940</v>
       </c>
       <c r="G27" s="19">
-        <v>592041112</v>
+        <v>1351053017</v>
       </c>
       <c r="H27" s="19">
-        <v>725869826</v>
-      </c>
-      <c r="I27" s="19">
-        <v>880713557</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1057873120</v>
-      </c>
-      <c r="K27" s="19">
-        <v>1103117907</v>
-      </c>
-      <c r="L27" s="19">
-        <v>1270941940</v>
-      </c>
-      <c r="M27" s="19">
-        <v>1329775578</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1251374938</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1502,267 +1190,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>52926675</v>
+        <v>124272764</v>
       </c>
       <c r="E29" s="15">
-        <v>66876298</v>
+        <v>125459840</v>
       </c>
       <c r="F29" s="15">
-        <v>86775963</v>
+        <v>163504218</v>
       </c>
       <c r="G29" s="15">
-        <v>78953223</v>
+        <v>161464254</v>
       </c>
       <c r="H29" s="15">
-        <v>94664847</v>
-      </c>
-      <c r="I29" s="15">
-        <v>106871605</v>
-      </c>
-      <c r="J29" s="15">
-        <v>124272764</v>
-      </c>
-      <c r="K29" s="15">
-        <v>125459840</v>
-      </c>
-      <c r="L29" s="15">
-        <v>163504218</v>
-      </c>
-      <c r="M29" s="15">
-        <v>133963825</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>206710841</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>5803933</v>
+        <v>42686183</v>
       </c>
       <c r="E31" s="15">
-        <v>19626311</v>
+        <v>7499660</v>
       </c>
       <c r="F31" s="15">
-        <v>9766604</v>
+        <v>6470280</v>
       </c>
       <c r="G31" s="15">
-        <v>4124817</v>
+        <v>3641662</v>
       </c>
       <c r="H31" s="15">
-        <v>13802970</v>
-      </c>
-      <c r="I31" s="15">
-        <v>21988143</v>
-      </c>
-      <c r="J31" s="15">
-        <v>42686183</v>
-      </c>
-      <c r="K31" s="15">
-        <v>7499660</v>
-      </c>
-      <c r="L31" s="15">
-        <v>6470280</v>
-      </c>
-      <c r="M31" s="15">
-        <v>3439535</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20370093</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>2802813</v>
+        <v>25568444</v>
       </c>
       <c r="E32" s="11">
-        <v>8240183</v>
+        <v>22873007</v>
       </c>
       <c r="F32" s="11">
-        <v>12524466</v>
+        <v>19038064</v>
       </c>
       <c r="G32" s="11">
-        <v>11574239</v>
+        <v>19141668</v>
       </c>
       <c r="H32" s="11">
-        <v>18210085</v>
-      </c>
-      <c r="I32" s="11">
-        <v>15647769</v>
-      </c>
-      <c r="J32" s="11">
-        <v>25568444</v>
-      </c>
-      <c r="K32" s="11">
-        <v>22873007</v>
-      </c>
-      <c r="L32" s="11">
-        <v>19038064</v>
-      </c>
-      <c r="M32" s="11">
-        <v>10590978</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6917190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>233246</v>
+        <v>34700451</v>
       </c>
       <c r="E33" s="15">
-        <v>21460877</v>
+        <v>905212</v>
       </c>
       <c r="F33" s="15">
-        <v>20042592</v>
+        <v>810393</v>
       </c>
       <c r="G33" s="15">
-        <v>539301</v>
+        <v>236401623</v>
       </c>
       <c r="H33" s="15">
-        <v>475499</v>
-      </c>
-      <c r="I33" s="15">
-        <v>47324418</v>
-      </c>
-      <c r="J33" s="15">
-        <v>34700451</v>
-      </c>
-      <c r="K33" s="15">
-        <v>905212</v>
-      </c>
-      <c r="L33" s="15">
-        <v>810393</v>
-      </c>
-      <c r="M33" s="15">
-        <v>254907621</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15987392</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1123135</v>
+        <v>0</v>
       </c>
       <c r="E34" s="11">
-        <v>1888062</v>
+        <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>1926837</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>3631970</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>7321228</v>
+        <v>18049956</v>
       </c>
       <c r="E35" s="15">
-        <v>9729034</v>
+        <v>26966906</v>
       </c>
       <c r="F35" s="15">
-        <v>9726577</v>
+        <v>33806182</v>
       </c>
       <c r="G35" s="15">
-        <v>13658231</v>
+        <v>48243196</v>
       </c>
       <c r="H35" s="15">
-        <v>19361032</v>
-      </c>
-      <c r="I35" s="15">
-        <v>24823561</v>
-      </c>
-      <c r="J35" s="15">
-        <v>18049956</v>
-      </c>
-      <c r="K35" s="15">
-        <v>26966906</v>
-      </c>
-      <c r="L35" s="15">
-        <v>33806182</v>
-      </c>
-      <c r="M35" s="15">
-        <v>40059796</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29378315</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1780,137 +1358,77 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>70211030</v>
+        <v>245277798</v>
       </c>
       <c r="E37" s="17">
-        <v>127820765</v>
+        <v>183704625</v>
       </c>
       <c r="F37" s="17">
-        <v>140763039</v>
+        <v>223629137</v>
       </c>
       <c r="G37" s="17">
-        <v>112481781</v>
+        <v>468892403</v>
       </c>
       <c r="H37" s="17">
-        <v>146514433</v>
-      </c>
-      <c r="I37" s="17">
-        <v>216655496</v>
-      </c>
-      <c r="J37" s="17">
-        <v>245277798</v>
-      </c>
-      <c r="K37" s="17">
-        <v>183704625</v>
-      </c>
-      <c r="L37" s="17">
-        <v>223629137</v>
-      </c>
-      <c r="M37" s="17">
-        <v>442961755</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>279363831</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>4068101</v>
+        <v>269947</v>
       </c>
       <c r="E38" s="11">
-        <v>1488101</v>
+        <v>192342</v>
       </c>
       <c r="F38" s="11">
-        <v>1488101</v>
+        <v>192343</v>
       </c>
       <c r="G38" s="11">
-        <v>2308101</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>3608101</v>
-      </c>
-      <c r="I38" s="11">
-        <v>269947</v>
-      </c>
-      <c r="J38" s="11">
-        <v>269947</v>
-      </c>
-      <c r="K38" s="11">
-        <v>192342</v>
-      </c>
-      <c r="L38" s="11">
-        <v>192343</v>
-      </c>
-      <c r="M38" s="11">
-        <v>192342</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>605460</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
@@ -1924,133 +1442,73 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>5680792</v>
+        <v>8401380</v>
       </c>
       <c r="E41" s="15">
-        <v>6210107</v>
+        <v>9338696</v>
       </c>
       <c r="F41" s="15">
-        <v>8131675</v>
+        <v>15814556</v>
       </c>
       <c r="G41" s="15">
-        <v>6953119</v>
+        <v>12594374</v>
       </c>
       <c r="H41" s="15">
-        <v>10693559</v>
-      </c>
-      <c r="I41" s="15">
-        <v>8085681</v>
-      </c>
-      <c r="J41" s="15">
-        <v>8401380</v>
-      </c>
-      <c r="K41" s="15">
-        <v>9338696</v>
-      </c>
-      <c r="L41" s="15">
-        <v>15814556</v>
-      </c>
-      <c r="M41" s="15">
-        <v>12594374</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14424328</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>10354353</v>
+        <v>8671327</v>
       </c>
       <c r="E42" s="19">
-        <v>7698208</v>
+        <v>9531038</v>
       </c>
       <c r="F42" s="19">
-        <v>9619776</v>
+        <v>16006899</v>
       </c>
       <c r="G42" s="19">
-        <v>9261220</v>
+        <v>12594374</v>
       </c>
       <c r="H42" s="19">
-        <v>14301660</v>
-      </c>
-      <c r="I42" s="19">
-        <v>8355628</v>
-      </c>
-      <c r="J42" s="19">
-        <v>8671327</v>
-      </c>
-      <c r="K42" s="19">
-        <v>9531038</v>
-      </c>
-      <c r="L42" s="19">
-        <v>16006899</v>
-      </c>
-      <c r="M42" s="19">
-        <v>12786716</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14424328</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>80565383</v>
+        <v>253949125</v>
       </c>
       <c r="E43" s="17">
-        <v>135518973</v>
+        <v>193235663</v>
       </c>
       <c r="F43" s="17">
-        <v>150382815</v>
+        <v>239636036</v>
       </c>
       <c r="G43" s="17">
-        <v>121743001</v>
+        <v>481486777</v>
       </c>
       <c r="H43" s="17">
-        <v>160816093</v>
-      </c>
-      <c r="I43" s="17">
-        <v>225011124</v>
-      </c>
-      <c r="J43" s="17">
-        <v>253949125</v>
-      </c>
-      <c r="K43" s="17">
-        <v>193235663</v>
-      </c>
-      <c r="L43" s="17">
-        <v>239636036</v>
-      </c>
-      <c r="M43" s="17">
-        <v>455748471</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>293788159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2058,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>101400000</v>
+        <v>200000000</v>
       </c>
       <c r="E45" s="15">
-        <v>101400000</v>
+        <v>400000000</v>
       </c>
       <c r="F45" s="15">
-        <v>101400000</v>
+        <v>400000000</v>
       </c>
       <c r="G45" s="15">
-        <v>200000000</v>
+        <v>400000000</v>
       </c>
       <c r="H45" s="15">
-        <v>200000000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>200000000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>200000000</v>
-      </c>
-      <c r="K45" s="15">
         <v>400000000</v>
       </c>
-      <c r="L45" s="15">
-        <v>400000000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>400000000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2120,35 +1558,20 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>200000000</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>98600000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -2156,133 +1579,73 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>200000000</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-17399662</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-19114056</v>
       </c>
       <c r="G48" s="11">
-        <v>-11591922</v>
+        <v>-78591</v>
       </c>
       <c r="H48" s="11">
-        <v>-11591922</v>
-      </c>
-      <c r="I48" s="11">
-        <v>-12983119</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>-17399662</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-19114056</v>
-      </c>
-      <c r="M48" s="11">
-        <v>-1714394</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-78591</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>949933</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>949933</v>
       </c>
       <c r="G49" s="15">
-        <v>200851</v>
+        <v>1208112</v>
       </c>
       <c r="H49" s="15">
-        <v>200851</v>
-      </c>
-      <c r="I49" s="15">
-        <v>204489</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>949933</v>
-      </c>
-      <c r="L49" s="15">
-        <v>949933</v>
-      </c>
-      <c r="M49" s="15">
-        <v>1274607</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1208112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>10140000</v>
+        <v>20000000</v>
       </c>
       <c r="E50" s="11">
-        <v>10140000</v>
+        <v>40000000</v>
       </c>
       <c r="F50" s="11">
-        <v>10140000</v>
+        <v>40000000</v>
       </c>
       <c r="G50" s="11">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="H50" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="I50" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="J50" s="11">
-        <v>20000000</v>
-      </c>
-      <c r="K50" s="11">
         <v>40000000</v>
       </c>
-      <c r="L50" s="11">
-        <v>40000000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2300,61 +1663,31 @@
       <c r="H51" s="15">
         <v>2635097</v>
       </c>
-      <c r="I51" s="15">
-        <v>2635097</v>
-      </c>
-      <c r="J51" s="15">
-        <v>2635097</v>
-      </c>
-      <c r="K51" s="15">
-        <v>2635097</v>
-      </c>
-      <c r="L51" s="15">
-        <v>2635097</v>
-      </c>
-      <c r="M51" s="15">
-        <v>2635097</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2372,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2444,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>171918517</v>
+        <v>381288898</v>
       </c>
       <c r="E56" s="11">
-        <v>201930996</v>
+        <v>483696876</v>
       </c>
       <c r="F56" s="11">
-        <v>179979872</v>
+        <v>606834930</v>
       </c>
       <c r="G56" s="11">
-        <v>259054085</v>
+        <v>425801622</v>
       </c>
       <c r="H56" s="11">
-        <v>353809707</v>
-      </c>
-      <c r="I56" s="11">
-        <v>445845966</v>
-      </c>
-      <c r="J56" s="11">
-        <v>381288898</v>
-      </c>
-      <c r="K56" s="11">
-        <v>483696876</v>
-      </c>
-      <c r="L56" s="11">
-        <v>606834930</v>
-      </c>
-      <c r="M56" s="11">
-        <v>431831797</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>513822161</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>286093614</v>
+        <v>803923995</v>
       </c>
       <c r="E57" s="17">
-        <v>316106093</v>
+        <v>909882244</v>
       </c>
       <c r="F57" s="17">
-        <v>392754969</v>
+        <v>1031305904</v>
       </c>
       <c r="G57" s="17">
-        <v>470298111</v>
+        <v>869566240</v>
       </c>
       <c r="H57" s="17">
-        <v>565053733</v>
-      </c>
-      <c r="I57" s="17">
-        <v>655702433</v>
-      </c>
-      <c r="J57" s="17">
-        <v>803923995</v>
-      </c>
-      <c r="K57" s="17">
-        <v>909882244</v>
-      </c>
-      <c r="L57" s="17">
-        <v>1031305904</v>
-      </c>
-      <c r="M57" s="17">
-        <v>874027107</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>957586779</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>366658997</v>
+        <v>1057873120</v>
       </c>
       <c r="E58" s="19">
-        <v>451625066</v>
+        <v>1103117907</v>
       </c>
       <c r="F58" s="19">
-        <v>543137784</v>
+        <v>1270941940</v>
       </c>
       <c r="G58" s="19">
-        <v>592041112</v>
+        <v>1351053017</v>
       </c>
       <c r="H58" s="19">
-        <v>725869826</v>
-      </c>
-      <c r="I58" s="19">
-        <v>880713557</v>
-      </c>
-      <c r="J58" s="19">
-        <v>1057873120</v>
-      </c>
-      <c r="K58" s="19">
-        <v>1103117907</v>
-      </c>
-      <c r="L58" s="19">
-        <v>1270941940</v>
-      </c>
-      <c r="M58" s="19">
-        <v>1329775578</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1251374938</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2576,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
+++ b/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC0A4E-CA48-4760-920D-64828DA66A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B79CE-E2AC-4F56-A08D-00D2087F1E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-10-15 (2)</t>
+  </si>
+  <si>
+    <t>1399-11-08 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-18 (12)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (3)</t>
+  </si>
+  <si>
+    <t>1400-09-15 (2)</t>
   </si>
   <si>
     <t>1400-10-29</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>41295577</v>
+      </c>
+      <c r="E12" s="15">
+        <v>29274582</v>
+      </c>
+      <c r="F12" s="15">
+        <v>29825975</v>
+      </c>
+      <c r="G12" s="15">
+        <v>12379314</v>
+      </c>
+      <c r="H12" s="15">
+        <v>60094972</v>
+      </c>
+      <c r="I12" s="15">
         <v>82804067</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>33040302</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>68691708</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>136249979</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>76879187</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>48269153</v>
+      </c>
+      <c r="E13" s="11">
+        <v>57820036</v>
+      </c>
+      <c r="F13" s="11">
+        <v>59249371</v>
+      </c>
+      <c r="G13" s="11">
+        <v>54755242</v>
+      </c>
+      <c r="H13" s="11">
+        <v>24819564</v>
+      </c>
+      <c r="I13" s="11">
         <v>25047595</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>43052681</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>60130227</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>207854061</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>33458012</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>81473318</v>
+      </c>
+      <c r="E14" s="15">
+        <v>128488745</v>
+      </c>
+      <c r="F14" s="15">
+        <v>158167936</v>
+      </c>
+      <c r="G14" s="15">
+        <v>232743801</v>
+      </c>
+      <c r="H14" s="15">
+        <v>340458815</v>
+      </c>
+      <c r="I14" s="15">
         <v>367032536</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>414775219</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>429714192</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>315216414</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>361049059</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>54843212</v>
+      </c>
+      <c r="E15" s="11">
+        <v>64400764</v>
+      </c>
+      <c r="F15" s="11">
+        <v>76156647</v>
+      </c>
+      <c r="G15" s="11">
+        <v>99129744</v>
+      </c>
+      <c r="H15" s="11">
+        <v>92280516</v>
+      </c>
+      <c r="I15" s="11">
         <v>65122167</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>89133152</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>99573375</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>111440446</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>135307572</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>16276631</v>
+      </c>
+      <c r="E16" s="15">
+        <v>24672261</v>
+      </c>
+      <c r="F16" s="15">
+        <v>11651375</v>
+      </c>
+      <c r="G16" s="15">
+        <v>39263070</v>
+      </c>
+      <c r="H16" s="15">
+        <v>28180093</v>
+      </c>
+      <c r="I16" s="15">
         <v>59421416</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>26624770</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>77247795</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>50115262</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>54019367</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>242157891</v>
+      </c>
+      <c r="E18" s="17">
+        <v>304656388</v>
+      </c>
+      <c r="F18" s="17">
+        <v>335051304</v>
+      </c>
+      <c r="G18" s="17">
+        <v>438271171</v>
+      </c>
+      <c r="H18" s="17">
+        <v>545833960</v>
+      </c>
+      <c r="I18" s="17">
         <v>599427781</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>606626124</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>735357297</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>820876162</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>660713197</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>3546925</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3546925</v>
+      </c>
+      <c r="F19" s="11">
         <v>5521975</v>
       </c>
-      <c r="E19" s="11">
+      <c r="G19" s="11">
+        <v>5009250</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4535250</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5521975</v>
+      </c>
+      <c r="J19" s="11">
         <v>28288010</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>28288010</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>24650725</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>28288010</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>75316061</v>
+      </c>
+      <c r="E20" s="15">
+        <v>92134460</v>
+      </c>
+      <c r="F20" s="15">
+        <v>88533049</v>
+      </c>
+      <c r="G20" s="15">
+        <v>110152364</v>
+      </c>
+      <c r="H20" s="15">
+        <v>141849105</v>
+      </c>
+      <c r="I20" s="15">
         <v>243509805</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>234841068</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>253740251</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>216789721</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>243403716</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1295,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>129030057</v>
+      </c>
+      <c r="E22" s="15">
+        <v>140295364</v>
+      </c>
+      <c r="F22" s="15">
+        <v>159765366</v>
+      </c>
+      <c r="G22" s="15">
+        <v>168780785</v>
+      </c>
+      <c r="H22" s="15">
+        <v>183179523</v>
+      </c>
+      <c r="I22" s="15">
         <v>203633448</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>229058417</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>249236219</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>284150357</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>313898847</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>832546</v>
+      </c>
+      <c r="E23" s="11">
+        <v>824769</v>
+      </c>
+      <c r="F23" s="11">
+        <v>970516</v>
+      </c>
+      <c r="G23" s="11">
+        <v>965946</v>
+      </c>
+      <c r="H23" s="11">
+        <v>953813</v>
+      </c>
+      <c r="I23" s="11">
         <v>986213</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>979752</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>975647</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>970156</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>969118</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>741586</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1679878</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2198902</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2690310</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4361906</v>
+      </c>
+      <c r="I25" s="11">
         <v>4793898</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>3324536</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>3344516</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>3615896</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>4102050</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>209467175</v>
+      </c>
+      <c r="E26" s="17">
+        <v>238481396</v>
+      </c>
+      <c r="F26" s="17">
+        <v>256989808</v>
+      </c>
+      <c r="G26" s="17">
+        <v>287598655</v>
+      </c>
+      <c r="H26" s="17">
+        <v>334879597</v>
+      </c>
+      <c r="I26" s="17">
         <v>458445339</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>496491783</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>535584643</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>530176855</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>590661741</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>451625066</v>
+      </c>
+      <c r="E27" s="19">
+        <v>543137784</v>
+      </c>
+      <c r="F27" s="19">
+        <v>592041112</v>
+      </c>
+      <c r="G27" s="19">
+        <v>725869826</v>
+      </c>
+      <c r="H27" s="19">
+        <v>880713557</v>
+      </c>
+      <c r="I27" s="19">
         <v>1057873120</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>1103117907</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>1270941940</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>1351053017</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>1251374938</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,125 +1537,205 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>66876298</v>
+      </c>
+      <c r="E29" s="15">
+        <v>86775963</v>
+      </c>
+      <c r="F29" s="15">
+        <v>78953223</v>
+      </c>
+      <c r="G29" s="15">
+        <v>94664847</v>
+      </c>
+      <c r="H29" s="15">
+        <v>106871605</v>
+      </c>
+      <c r="I29" s="15">
         <v>124272764</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>125459840</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>163504218</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>161464254</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>206710841</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>19626311</v>
+      </c>
+      <c r="E31" s="15">
+        <v>9766604</v>
+      </c>
+      <c r="F31" s="15">
+        <v>4124817</v>
+      </c>
+      <c r="G31" s="15">
+        <v>13802970</v>
+      </c>
+      <c r="H31" s="15">
+        <v>21988143</v>
+      </c>
+      <c r="I31" s="15">
         <v>42686183</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>7499660</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>6470280</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>3641662</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>20370093</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>8240183</v>
+      </c>
+      <c r="E32" s="11">
+        <v>12524466</v>
+      </c>
+      <c r="F32" s="11">
+        <v>11574239</v>
+      </c>
+      <c r="G32" s="11">
+        <v>18210085</v>
+      </c>
+      <c r="H32" s="11">
+        <v>15647769</v>
+      </c>
+      <c r="I32" s="11">
         <v>25568444</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>22873007</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>19038064</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>19141668</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>6917190</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>21460877</v>
+      </c>
+      <c r="E33" s="15">
+        <v>20042592</v>
+      </c>
+      <c r="F33" s="15">
+        <v>539301</v>
+      </c>
+      <c r="G33" s="15">
+        <v>475499</v>
+      </c>
+      <c r="H33" s="15">
+        <v>47324418</v>
+      </c>
+      <c r="I33" s="15">
         <v>34700451</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>905212</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>810393</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>236401623</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>15987392</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>0</v>
+        <v>1888062</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>1926837</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>3631970</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
@@ -1316,31 +1743,61 @@
       <c r="H34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>9729034</v>
+      </c>
+      <c r="E35" s="15">
+        <v>9726577</v>
+      </c>
+      <c r="F35" s="15">
+        <v>13658231</v>
+      </c>
+      <c r="G35" s="15">
+        <v>19361032</v>
+      </c>
+      <c r="H35" s="15">
+        <v>24823561</v>
+      </c>
+      <c r="I35" s="15">
         <v>18049956</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
         <v>26966906</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>33806182</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>48243196</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>29378315</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,73 +1815,133 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>127820765</v>
+      </c>
+      <c r="E37" s="17">
+        <v>140763039</v>
+      </c>
+      <c r="F37" s="17">
+        <v>112481781</v>
+      </c>
+      <c r="G37" s="17">
+        <v>146514433</v>
+      </c>
+      <c r="H37" s="17">
+        <v>216655496</v>
+      </c>
+      <c r="I37" s="17">
         <v>245277798</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>183704625</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>223629137</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>468892403</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>279363831</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>1488101</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1488101</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2308101</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3608101</v>
+      </c>
+      <c r="H38" s="11">
         <v>269947</v>
       </c>
-      <c r="E38" s="11">
+      <c r="I38" s="11">
+        <v>269947</v>
+      </c>
+      <c r="J38" s="11">
         <v>192342</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>192343</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>6210107</v>
+      </c>
+      <c r="E41" s="15">
+        <v>8131675</v>
+      </c>
+      <c r="F41" s="15">
+        <v>6953119</v>
+      </c>
+      <c r="G41" s="15">
+        <v>10693559</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8085681</v>
+      </c>
+      <c r="I41" s="15">
         <v>8401380</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>9338696</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>15814556</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>12594374</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>14424328</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>7698208</v>
+      </c>
+      <c r="E42" s="19">
+        <v>9619776</v>
+      </c>
+      <c r="F42" s="19">
+        <v>9261220</v>
+      </c>
+      <c r="G42" s="19">
+        <v>14301660</v>
+      </c>
+      <c r="H42" s="19">
+        <v>8355628</v>
+      </c>
+      <c r="I42" s="19">
         <v>8671327</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>9531038</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>16006899</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>12594374</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>14424328</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>135518973</v>
+      </c>
+      <c r="E43" s="17">
+        <v>150382815</v>
+      </c>
+      <c r="F43" s="17">
+        <v>121743001</v>
+      </c>
+      <c r="G43" s="17">
+        <v>160816093</v>
+      </c>
+      <c r="H43" s="17">
+        <v>225011124</v>
+      </c>
+      <c r="I43" s="17">
         <v>253949125</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>193235663</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>239636036</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>481486777</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>293788159</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>101400000</v>
+      </c>
+      <c r="E45" s="15">
+        <v>101400000</v>
+      </c>
+      <c r="F45" s="15">
         <v>200000000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="G45" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="J45" s="15">
         <v>400000000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>400000000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>400000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>400000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,94 +2155,169 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>98600000</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
         <v>200000000</v>
       </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-11591922</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-11591922</v>
+      </c>
+      <c r="H48" s="11">
+        <v>-12983119</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>-17399662</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-19114056</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-78591</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-78591</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>200851</v>
+      </c>
+      <c r="G49" s="15">
+        <v>200851</v>
+      </c>
+      <c r="H49" s="15">
+        <v>204489</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
         <v>949933</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>949933</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>1208112</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>1208112</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>10140000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>10140000</v>
+      </c>
+      <c r="F50" s="11">
         <v>20000000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>20000000</v>
+      </c>
+      <c r="J50" s="11">
         <v>40000000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>40000000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>40000000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>40000000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>2635097</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="J51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="K51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="L51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="M51" s="15">
+        <v>2635097</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>201930996</v>
+      </c>
+      <c r="E56" s="11">
+        <v>179979872</v>
+      </c>
+      <c r="F56" s="11">
+        <v>259054085</v>
+      </c>
+      <c r="G56" s="11">
+        <v>353809707</v>
+      </c>
+      <c r="H56" s="11">
+        <v>445845966</v>
+      </c>
+      <c r="I56" s="11">
         <v>381288898</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>483696876</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>606834930</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>425801622</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>513822161</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>316106093</v>
+      </c>
+      <c r="E57" s="17">
+        <v>392754969</v>
+      </c>
+      <c r="F57" s="17">
+        <v>470298111</v>
+      </c>
+      <c r="G57" s="17">
+        <v>565053733</v>
+      </c>
+      <c r="H57" s="17">
+        <v>655702433</v>
+      </c>
+      <c r="I57" s="17">
         <v>803923995</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>909882244</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>1031305904</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>869566240</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>957586779</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>451625066</v>
+      </c>
+      <c r="E58" s="19">
+        <v>543137784</v>
+      </c>
+      <c r="F58" s="19">
+        <v>592041112</v>
+      </c>
+      <c r="G58" s="19">
+        <v>725869826</v>
+      </c>
+      <c r="H58" s="19">
+        <v>880713557</v>
+      </c>
+      <c r="I58" s="19">
         <v>1057873120</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>1103117907</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>1270941940</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>1351053017</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>1251374938</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
+++ b/database/industries/felezat/fameli/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\felezat\fameli\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\felezat\fameli\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E756B5-8775-40C1-91D5-19F834407A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63BE07-CF4B-42CE-974E-C8FCA9397901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1397-10-30</t>
+  </si>
+  <si>
+    <t>1399-04-21 (8)</t>
+  </si>
+  <si>
+    <t>1398-04-30</t>
+  </si>
+  <si>
+    <t>1398-09-13 (2)</t>
+  </si>
+  <si>
+    <t>1398-10-28</t>
+  </si>
+  <si>
+    <t>1400-04-23 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-30</t>
+  </si>
+  <si>
     <t>1399-10-15 (2)</t>
   </si>
   <si>
@@ -88,7 +139,7 @@
     <t>1400-10-29</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-04-21 (9)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +149,15 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +796,20 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,8 +822,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +848,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,8 +874,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -802,8 +898,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,8 +924,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,8 +950,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -848,8 +974,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -884,44 +1020,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -934,10 +1130,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -950,190 +1156,350 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>5351166</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4638754</v>
+      </c>
+      <c r="F12" s="15">
+        <v>12370496</v>
+      </c>
+      <c r="G12" s="15">
+        <v>34089289</v>
+      </c>
+      <c r="H12" s="15">
+        <v>30614021</v>
+      </c>
+      <c r="I12" s="15">
+        <v>26659685</v>
+      </c>
+      <c r="J12" s="15">
+        <v>51393621</v>
+      </c>
+      <c r="K12" s="15">
         <v>41295577</v>
       </c>
-      <c r="E12" s="15">
+      <c r="L12" s="15">
         <v>29274582</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>29825975</v>
       </c>
-      <c r="G12" s="15">
+      <c r="N12" s="15">
         <v>12379314</v>
       </c>
-      <c r="H12" s="15">
+      <c r="O12" s="15">
         <v>60094972</v>
       </c>
-      <c r="I12" s="15">
+      <c r="P12" s="15">
         <v>82804067</v>
       </c>
-      <c r="J12" s="15">
+      <c r="Q12" s="15">
         <v>33040302</v>
       </c>
-      <c r="K12" s="15">
+      <c r="R12" s="15">
         <v>68691708</v>
       </c>
-      <c r="L12" s="15">
+      <c r="S12" s="15">
         <v>136249979</v>
       </c>
-      <c r="M12" s="15">
+      <c r="T12" s="15">
         <v>76879187</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>55923503</v>
+      </c>
+      <c r="V12" s="15">
+        <v>95092735</v>
+      </c>
+      <c r="W12" s="15">
+        <v>72055748</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>10016270</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4690530</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4518653</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5541739</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3729106</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6677754</v>
+      </c>
+      <c r="J13" s="11">
+        <v>9423520</v>
+      </c>
+      <c r="K13" s="11">
         <v>48269153</v>
       </c>
-      <c r="E13" s="11">
+      <c r="L13" s="11">
         <v>57820036</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>59249371</v>
       </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
         <v>54755242</v>
       </c>
-      <c r="H13" s="11">
+      <c r="O13" s="11">
         <v>24819564</v>
       </c>
-      <c r="I13" s="11">
+      <c r="P13" s="11">
         <v>25047595</v>
       </c>
-      <c r="J13" s="11">
+      <c r="Q13" s="11">
         <v>43052681</v>
       </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
         <v>60130227</v>
       </c>
-      <c r="L13" s="11">
+      <c r="S13" s="11">
         <v>207854061</v>
       </c>
-      <c r="M13" s="11">
+      <c r="T13" s="11">
         <v>33458012</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>37503513</v>
+      </c>
+      <c r="V13" s="11">
+        <v>42963208</v>
+      </c>
+      <c r="W13" s="11">
+        <v>38358908</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>23141328</v>
+      </c>
+      <c r="E14" s="15">
+        <v>34926544</v>
+      </c>
+      <c r="F14" s="15">
+        <v>61825456</v>
+      </c>
+      <c r="G14" s="15">
+        <v>53246165</v>
+      </c>
+      <c r="H14" s="15">
+        <v>90906598</v>
+      </c>
+      <c r="I14" s="15">
+        <v>79555595</v>
+      </c>
+      <c r="J14" s="15">
+        <v>72552231</v>
+      </c>
+      <c r="K14" s="15">
         <v>81473318</v>
       </c>
-      <c r="E14" s="15">
+      <c r="L14" s="15">
         <v>128488745</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M14" s="15">
         <v>158167936</v>
       </c>
-      <c r="G14" s="15">
+      <c r="N14" s="15">
         <v>232743801</v>
       </c>
-      <c r="H14" s="15">
+      <c r="O14" s="15">
         <v>340458815</v>
       </c>
-      <c r="I14" s="15">
+      <c r="P14" s="15">
         <v>367032536</v>
       </c>
-      <c r="J14" s="15">
-        <v>414775219</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="Q14" s="15">
+        <v>413287419</v>
+      </c>
+      <c r="R14" s="15">
         <v>429714192</v>
       </c>
-      <c r="L14" s="15">
+      <c r="S14" s="15">
         <v>315216414</v>
       </c>
-      <c r="M14" s="15">
+      <c r="T14" s="15">
         <v>361049059</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="15">
+        <v>398522148</v>
+      </c>
+      <c r="V14" s="15">
+        <v>348887931</v>
+      </c>
+      <c r="W14" s="15">
+        <v>552584496</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>34351918</v>
+      </c>
+      <c r="E15" s="11">
+        <v>39633974</v>
+      </c>
+      <c r="F15" s="11">
+        <v>46077701</v>
+      </c>
+      <c r="G15" s="11">
+        <v>52464110</v>
+      </c>
+      <c r="H15" s="11">
+        <v>58465854</v>
+      </c>
+      <c r="I15" s="11">
+        <v>54144656</v>
+      </c>
+      <c r="J15" s="11">
+        <v>56523903</v>
+      </c>
+      <c r="K15" s="11">
         <v>54843212</v>
       </c>
-      <c r="E15" s="11">
+      <c r="L15" s="11">
         <v>64400764</v>
       </c>
-      <c r="F15" s="11">
+      <c r="M15" s="11">
         <v>76156647</v>
       </c>
-      <c r="G15" s="11">
+      <c r="N15" s="11">
         <v>99129744</v>
       </c>
-      <c r="H15" s="11">
+      <c r="O15" s="11">
         <v>92280516</v>
       </c>
-      <c r="I15" s="11">
+      <c r="P15" s="11">
         <v>65122167</v>
       </c>
-      <c r="J15" s="11">
+      <c r="Q15" s="11">
         <v>89133152</v>
       </c>
-      <c r="K15" s="11">
+      <c r="R15" s="11">
         <v>99573375</v>
       </c>
-      <c r="L15" s="11">
+      <c r="S15" s="11">
         <v>111440446</v>
       </c>
-      <c r="M15" s="11">
+      <c r="T15" s="11">
         <v>135307572</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U15" s="11">
+        <v>128968836</v>
+      </c>
+      <c r="V15" s="11">
+        <v>194533684</v>
+      </c>
+      <c r="W15" s="11">
+        <v>169686135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>6250224</v>
+      </c>
+      <c r="E16" s="15">
+        <v>7261733</v>
+      </c>
+      <c r="F16" s="15">
+        <v>12054136</v>
+      </c>
+      <c r="G16" s="15">
+        <v>8702867</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9955245</v>
+      </c>
+      <c r="I16" s="15">
+        <v>10638351</v>
+      </c>
+      <c r="J16" s="15">
+        <v>15627034</v>
+      </c>
+      <c r="K16" s="15">
         <v>16276631</v>
       </c>
-      <c r="E16" s="15">
+      <c r="L16" s="15">
         <v>24672261</v>
       </c>
-      <c r="F16" s="15">
+      <c r="M16" s="15">
         <v>11651375</v>
       </c>
-      <c r="G16" s="15">
+      <c r="N16" s="15">
         <v>39263070</v>
       </c>
-      <c r="H16" s="15">
+      <c r="O16" s="15">
         <v>28180093</v>
       </c>
-      <c r="I16" s="15">
+      <c r="P16" s="15">
         <v>59421416</v>
       </c>
-      <c r="J16" s="15">
-        <v>26624770</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="Q16" s="15">
+        <v>26459954</v>
+      </c>
+      <c r="R16" s="15">
         <v>77247795</v>
       </c>
-      <c r="L16" s="15">
+      <c r="S16" s="15">
         <v>50115262</v>
       </c>
-      <c r="M16" s="15">
+      <c r="T16" s="15">
         <v>54019367</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>47459107</v>
+      </c>
+      <c r="V16" s="15">
+        <v>50334158</v>
+      </c>
+      <c r="W16" s="15">
+        <v>90403501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1166,118 +1532,238 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>79110906</v>
+      </c>
+      <c r="E18" s="17">
+        <v>91151535</v>
+      </c>
+      <c r="F18" s="17">
+        <v>136846442</v>
+      </c>
+      <c r="G18" s="17">
+        <v>154044170</v>
+      </c>
+      <c r="H18" s="17">
+        <v>193670824</v>
+      </c>
+      <c r="I18" s="17">
+        <v>177676041</v>
+      </c>
+      <c r="J18" s="17">
+        <v>205520309</v>
+      </c>
+      <c r="K18" s="17">
         <v>242157891</v>
       </c>
-      <c r="E18" s="17">
+      <c r="L18" s="17">
         <v>304656388</v>
       </c>
-      <c r="F18" s="17">
+      <c r="M18" s="17">
         <v>335051304</v>
       </c>
-      <c r="G18" s="17">
+      <c r="N18" s="17">
         <v>438271171</v>
       </c>
-      <c r="H18" s="17">
+      <c r="O18" s="17">
         <v>545833960</v>
       </c>
-      <c r="I18" s="17">
+      <c r="P18" s="17">
         <v>599427781</v>
       </c>
-      <c r="J18" s="17">
-        <v>606626124</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="Q18" s="17">
+        <v>604973508</v>
+      </c>
+      <c r="R18" s="17">
         <v>735357297</v>
       </c>
-      <c r="L18" s="17">
+      <c r="S18" s="17">
         <v>820876162</v>
       </c>
-      <c r="M18" s="17">
+      <c r="T18" s="17">
         <v>660713197</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="17">
+        <v>668377107</v>
+      </c>
+      <c r="V18" s="17">
+        <v>731811716</v>
+      </c>
+      <c r="W18" s="17">
+        <v>923088788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>1430333</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1095333</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1095333</v>
+      </c>
+      <c r="G19" s="11">
+        <v>435333</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5331833</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5182983</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4844258</v>
+      </c>
+      <c r="K19" s="11">
         <v>3546925</v>
       </c>
-      <c r="E19" s="11">
+      <c r="L19" s="11">
         <v>3546925</v>
       </c>
-      <c r="F19" s="11">
+      <c r="M19" s="11">
         <v>5521975</v>
       </c>
-      <c r="G19" s="11">
+      <c r="N19" s="11">
         <v>5009250</v>
       </c>
-      <c r="H19" s="11">
+      <c r="O19" s="11">
         <v>4535250</v>
       </c>
-      <c r="I19" s="11">
+      <c r="P19" s="11">
         <v>5521975</v>
       </c>
-      <c r="J19" s="11">
+      <c r="Q19" s="11">
+        <v>29775810</v>
+      </c>
+      <c r="R19" s="11">
         <v>28288010</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
+        <v>24650725</v>
+      </c>
+      <c r="T19" s="11">
         <v>28288010</v>
       </c>
-      <c r="L19" s="11">
-        <v>24650725</v>
-      </c>
-      <c r="M19" s="11">
-        <v>28288010</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="11">
+        <v>63477131</v>
+      </c>
+      <c r="V19" s="11">
+        <v>59633596</v>
+      </c>
+      <c r="W19" s="11">
+        <v>35989756</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>7155881</v>
+      </c>
+      <c r="E20" s="15">
+        <v>11252701</v>
+      </c>
+      <c r="F20" s="15">
+        <v>10611142</v>
+      </c>
+      <c r="G20" s="15">
+        <v>12714090</v>
+      </c>
+      <c r="H20" s="15">
+        <v>18049155</v>
+      </c>
+      <c r="I20" s="15">
+        <v>28696249</v>
+      </c>
+      <c r="J20" s="15">
+        <v>31813153</v>
+      </c>
+      <c r="K20" s="15">
         <v>75316061</v>
       </c>
-      <c r="E20" s="15">
+      <c r="L20" s="15">
         <v>92134460</v>
       </c>
-      <c r="F20" s="15">
+      <c r="M20" s="15">
         <v>88533049</v>
       </c>
-      <c r="G20" s="15">
+      <c r="N20" s="15">
         <v>110152364</v>
       </c>
-      <c r="H20" s="15">
+      <c r="O20" s="15">
         <v>141849105</v>
       </c>
-      <c r="I20" s="15">
+      <c r="P20" s="15">
         <v>243509805</v>
       </c>
-      <c r="J20" s="15">
+      <c r="Q20" s="15">
         <v>234841068</v>
       </c>
-      <c r="K20" s="15">
+      <c r="R20" s="15">
         <v>253740251</v>
       </c>
-      <c r="L20" s="15">
+      <c r="S20" s="15">
         <v>216789721</v>
       </c>
-      <c r="M20" s="15">
+      <c r="T20" s="15">
         <v>243403716</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="15">
+        <v>290285959</v>
+      </c>
+      <c r="V20" s="15">
+        <v>380918227</v>
+      </c>
+      <c r="W20" s="15">
+        <v>377460788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1310,226 +1796,436 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>85763294</v>
+      </c>
+      <c r="E22" s="15">
+        <v>90608211</v>
+      </c>
+      <c r="F22" s="15">
+        <v>95065053</v>
+      </c>
+      <c r="G22" s="15">
+        <v>98406817</v>
+      </c>
+      <c r="H22" s="15">
+        <v>105929134</v>
+      </c>
+      <c r="I22" s="15">
+        <v>116735948</v>
+      </c>
+      <c r="J22" s="15">
+        <v>120678167</v>
+      </c>
+      <c r="K22" s="15">
         <v>129030057</v>
       </c>
-      <c r="E22" s="15">
+      <c r="L22" s="15">
         <v>140295364</v>
       </c>
-      <c r="F22" s="15">
+      <c r="M22" s="15">
         <v>159765366</v>
       </c>
-      <c r="G22" s="15">
+      <c r="N22" s="15">
         <v>168780785</v>
       </c>
-      <c r="H22" s="15">
+      <c r="O22" s="15">
         <v>183179523</v>
       </c>
-      <c r="I22" s="15">
+      <c r="P22" s="15">
         <v>203633448</v>
       </c>
-      <c r="J22" s="15">
+      <c r="Q22" s="15">
         <v>229058417</v>
       </c>
-      <c r="K22" s="15">
+      <c r="R22" s="15">
         <v>249236219</v>
       </c>
-      <c r="L22" s="15">
+      <c r="S22" s="15">
         <v>284150357</v>
       </c>
-      <c r="M22" s="15">
+      <c r="T22" s="15">
         <v>313898847</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="15">
+        <v>368251798</v>
+      </c>
+      <c r="V22" s="15">
+        <v>439501103</v>
+      </c>
+      <c r="W22" s="15">
+        <v>489274699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>720614</v>
+      </c>
+      <c r="E23" s="11">
+        <v>865380</v>
+      </c>
+      <c r="F23" s="11">
+        <v>859058</v>
+      </c>
+      <c r="G23" s="11">
+        <v>864333</v>
+      </c>
+      <c r="H23" s="11">
+        <v>861887</v>
+      </c>
+      <c r="I23" s="11">
+        <v>850298</v>
+      </c>
+      <c r="J23" s="11">
+        <v>846099</v>
+      </c>
+      <c r="K23" s="11">
         <v>832546</v>
       </c>
-      <c r="E23" s="11">
+      <c r="L23" s="11">
         <v>824769</v>
       </c>
-      <c r="F23" s="11">
+      <c r="M23" s="11">
         <v>970516</v>
       </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
         <v>965946</v>
       </c>
-      <c r="H23" s="11">
+      <c r="O23" s="11">
         <v>953813</v>
       </c>
-      <c r="I23" s="11">
+      <c r="P23" s="11">
         <v>986213</v>
       </c>
-      <c r="J23" s="11">
+      <c r="Q23" s="11">
         <v>979752</v>
       </c>
-      <c r="K23" s="11">
+      <c r="R23" s="11">
         <v>975647</v>
       </c>
-      <c r="L23" s="11">
+      <c r="S23" s="11">
         <v>970156</v>
       </c>
-      <c r="M23" s="11">
+      <c r="T23" s="11">
         <v>969118</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U23" s="11">
+        <v>1337255</v>
+      </c>
+      <c r="V23" s="11">
+        <v>1333350</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1358430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>1415354</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1638248</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2732471</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2545891</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2800983</v>
+      </c>
+      <c r="I25" s="11">
+        <v>2624202</v>
+      </c>
+      <c r="J25" s="11">
+        <v>2957011</v>
+      </c>
+      <c r="K25" s="11">
         <v>741586</v>
       </c>
-      <c r="E25" s="11">
+      <c r="L25" s="11">
         <v>1679878</v>
       </c>
-      <c r="F25" s="11">
+      <c r="M25" s="11">
         <v>2198902</v>
       </c>
-      <c r="G25" s="11">
+      <c r="N25" s="11">
         <v>2690310</v>
       </c>
-      <c r="H25" s="11">
+      <c r="O25" s="11">
         <v>4361906</v>
       </c>
-      <c r="I25" s="11">
+      <c r="P25" s="11">
         <v>4793898</v>
       </c>
-      <c r="J25" s="11">
+      <c r="Q25" s="11">
         <v>3324536</v>
       </c>
-      <c r="K25" s="11">
+      <c r="R25" s="11">
         <v>3344516</v>
       </c>
-      <c r="L25" s="11">
+      <c r="S25" s="11">
         <v>3615896</v>
       </c>
-      <c r="M25" s="11">
+      <c r="T25" s="11">
         <v>4102050</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U25" s="11">
+        <v>5256683</v>
+      </c>
+      <c r="V25" s="11">
+        <v>6044522</v>
+      </c>
+      <c r="W25" s="11">
+        <v>7127613</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>96485476</v>
+      </c>
+      <c r="E26" s="17">
+        <v>105459873</v>
+      </c>
+      <c r="F26" s="17">
+        <v>110363057</v>
+      </c>
+      <c r="G26" s="17">
+        <v>114966464</v>
+      </c>
+      <c r="H26" s="17">
+        <v>132972992</v>
+      </c>
+      <c r="I26" s="17">
+        <v>154089680</v>
+      </c>
+      <c r="J26" s="17">
+        <v>161138688</v>
+      </c>
+      <c r="K26" s="17">
         <v>209467175</v>
       </c>
-      <c r="E26" s="17">
+      <c r="L26" s="17">
         <v>238481396</v>
       </c>
-      <c r="F26" s="17">
+      <c r="M26" s="17">
         <v>256989808</v>
       </c>
-      <c r="G26" s="17">
+      <c r="N26" s="17">
         <v>287598655</v>
       </c>
-      <c r="H26" s="17">
+      <c r="O26" s="17">
         <v>334879597</v>
       </c>
-      <c r="I26" s="17">
+      <c r="P26" s="17">
         <v>458445339</v>
       </c>
-      <c r="J26" s="17">
-        <v>496491783</v>
-      </c>
-      <c r="K26" s="17">
+      <c r="Q26" s="17">
+        <v>497979583</v>
+      </c>
+      <c r="R26" s="17">
         <v>535584643</v>
       </c>
-      <c r="L26" s="17">
+      <c r="S26" s="17">
         <v>530176855</v>
       </c>
-      <c r="M26" s="17">
+      <c r="T26" s="17">
         <v>590661741</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="17">
+        <v>728608826</v>
+      </c>
+      <c r="V26" s="17">
+        <v>887430798</v>
+      </c>
+      <c r="W26" s="17">
+        <v>911211286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>175596382</v>
+      </c>
+      <c r="E27" s="19">
+        <v>196611408</v>
+      </c>
+      <c r="F27" s="19">
+        <v>247209499</v>
+      </c>
+      <c r="G27" s="19">
+        <v>269010634</v>
+      </c>
+      <c r="H27" s="19">
+        <v>326643816</v>
+      </c>
+      <c r="I27" s="19">
+        <v>331765721</v>
+      </c>
+      <c r="J27" s="19">
+        <v>366658997</v>
+      </c>
+      <c r="K27" s="19">
         <v>451625066</v>
       </c>
-      <c r="E27" s="19">
+      <c r="L27" s="19">
         <v>543137784</v>
       </c>
-      <c r="F27" s="19">
+      <c r="M27" s="19">
         <v>592041112</v>
       </c>
-      <c r="G27" s="19">
+      <c r="N27" s="19">
         <v>725869826</v>
       </c>
-      <c r="H27" s="19">
+      <c r="O27" s="19">
         <v>880713557</v>
       </c>
-      <c r="I27" s="19">
+      <c r="P27" s="19">
         <v>1057873120</v>
       </c>
-      <c r="J27" s="19">
-        <v>1103117907</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="Q27" s="19">
+        <v>1102953091</v>
+      </c>
+      <c r="R27" s="19">
         <v>1270941940</v>
       </c>
-      <c r="L27" s="19">
+      <c r="S27" s="19">
         <v>1351053017</v>
       </c>
-      <c r="M27" s="19">
+      <c r="T27" s="19">
         <v>1251374938</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U27" s="19">
+        <v>1396985933</v>
+      </c>
+      <c r="V27" s="19">
+        <v>1619242514</v>
+      </c>
+      <c r="W27" s="19">
+        <v>1834300074</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1542,262 +2238,482 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>17307097</v>
+      </c>
+      <c r="E29" s="15">
+        <v>31728683</v>
+      </c>
+      <c r="F29" s="15">
+        <v>35303675</v>
+      </c>
+      <c r="G29" s="15">
+        <v>43077307</v>
+      </c>
+      <c r="H29" s="15">
+        <v>50636562</v>
+      </c>
+      <c r="I29" s="15">
+        <v>48285639</v>
+      </c>
+      <c r="J29" s="15">
+        <v>52926675</v>
+      </c>
+      <c r="K29" s="15">
         <v>66876298</v>
       </c>
-      <c r="E29" s="15">
+      <c r="L29" s="15">
         <v>86775963</v>
       </c>
-      <c r="F29" s="15">
+      <c r="M29" s="15">
         <v>78953223</v>
       </c>
-      <c r="G29" s="15">
+      <c r="N29" s="15">
         <v>94664847</v>
       </c>
-      <c r="H29" s="15">
+      <c r="O29" s="15">
         <v>106871605</v>
       </c>
-      <c r="I29" s="15">
+      <c r="P29" s="15">
         <v>124272764</v>
       </c>
-      <c r="J29" s="15">
-        <v>125459840</v>
-      </c>
-      <c r="K29" s="15">
+      <c r="Q29" s="15">
+        <v>125295024</v>
+      </c>
+      <c r="R29" s="15">
         <v>163504218</v>
       </c>
-      <c r="L29" s="15">
+      <c r="S29" s="15">
         <v>161464254</v>
       </c>
-      <c r="M29" s="15">
+      <c r="T29" s="15">
         <v>206710841</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U29" s="15">
+        <v>131349727</v>
+      </c>
+      <c r="V29" s="15">
+        <v>184364830</v>
+      </c>
+      <c r="W29" s="15">
+        <v>197222300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>398555</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1593953</v>
+      </c>
+      <c r="F31" s="15">
+        <v>9127363</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1070664</v>
+      </c>
+      <c r="H31" s="15">
+        <v>25930348</v>
+      </c>
+      <c r="I31" s="15">
+        <v>4849494</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5803933</v>
+      </c>
+      <c r="K31" s="15">
         <v>19626311</v>
       </c>
-      <c r="E31" s="15">
+      <c r="L31" s="15">
         <v>9766604</v>
       </c>
-      <c r="F31" s="15">
+      <c r="M31" s="15">
         <v>4124817</v>
       </c>
-      <c r="G31" s="15">
+      <c r="N31" s="15">
         <v>13802970</v>
       </c>
-      <c r="H31" s="15">
+      <c r="O31" s="15">
         <v>21988143</v>
       </c>
-      <c r="I31" s="15">
+      <c r="P31" s="15">
         <v>42686183</v>
       </c>
-      <c r="J31" s="15">
+      <c r="Q31" s="15">
         <v>7499660</v>
       </c>
-      <c r="K31" s="15">
+      <c r="R31" s="15">
         <v>6470280</v>
       </c>
-      <c r="L31" s="15">
+      <c r="S31" s="15">
         <v>3641662</v>
       </c>
-      <c r="M31" s="15">
+      <c r="T31" s="15">
         <v>20370093</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="15">
+        <v>18515937</v>
+      </c>
+      <c r="V31" s="15">
+        <v>16646723</v>
+      </c>
+      <c r="W31" s="15">
+        <v>51493086</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>1829508</v>
+      </c>
+      <c r="E32" s="11">
+        <v>6024081</v>
+      </c>
+      <c r="F32" s="11">
+        <v>3693881</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1683461</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1959611</v>
+      </c>
+      <c r="I32" s="11">
+        <v>10865147</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2802813</v>
+      </c>
+      <c r="K32" s="11">
         <v>8240183</v>
       </c>
-      <c r="E32" s="11">
+      <c r="L32" s="11">
         <v>12524466</v>
       </c>
-      <c r="F32" s="11">
+      <c r="M32" s="11">
         <v>11574239</v>
       </c>
-      <c r="G32" s="11">
+      <c r="N32" s="11">
         <v>18210085</v>
       </c>
-      <c r="H32" s="11">
+      <c r="O32" s="11">
         <v>15647769</v>
       </c>
-      <c r="I32" s="11">
+      <c r="P32" s="11">
         <v>25568444</v>
       </c>
-      <c r="J32" s="11">
-        <v>22873007</v>
-      </c>
-      <c r="K32" s="11">
+      <c r="Q32" s="11">
+        <v>31929031</v>
+      </c>
+      <c r="R32" s="11">
         <v>19038064</v>
       </c>
-      <c r="L32" s="11">
+      <c r="S32" s="11">
         <v>19141668</v>
       </c>
-      <c r="M32" s="11">
+      <c r="T32" s="11">
         <v>6917190</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="11">
+        <v>40888371</v>
+      </c>
+      <c r="V32" s="11">
+        <v>41107204</v>
+      </c>
+      <c r="W32" s="11">
+        <v>44437043</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>4084561</v>
+      </c>
+      <c r="E33" s="15">
+        <v>175478</v>
+      </c>
+      <c r="F33" s="15">
+        <v>164551</v>
+      </c>
+      <c r="G33" s="15">
+        <v>11183545</v>
+      </c>
+      <c r="H33" s="15">
+        <v>5997057</v>
+      </c>
+      <c r="I33" s="15">
+        <v>249963</v>
+      </c>
+      <c r="J33" s="15">
+        <v>233246</v>
+      </c>
+      <c r="K33" s="15">
         <v>21460877</v>
       </c>
-      <c r="E33" s="15">
+      <c r="L33" s="15">
         <v>20042592</v>
       </c>
-      <c r="F33" s="15">
+      <c r="M33" s="15">
         <v>539301</v>
       </c>
-      <c r="G33" s="15">
+      <c r="N33" s="15">
         <v>475499</v>
       </c>
-      <c r="H33" s="15">
+      <c r="O33" s="15">
         <v>47324418</v>
       </c>
-      <c r="I33" s="15">
+      <c r="P33" s="15">
         <v>34700451</v>
       </c>
-      <c r="J33" s="15">
+      <c r="Q33" s="15">
         <v>905212</v>
       </c>
-      <c r="K33" s="15">
+      <c r="R33" s="15">
         <v>810393</v>
       </c>
-      <c r="L33" s="15">
+      <c r="S33" s="15">
         <v>236401623</v>
       </c>
-      <c r="M33" s="15">
+      <c r="T33" s="15">
         <v>15987392</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="15">
+        <v>1653810</v>
+      </c>
+      <c r="V33" s="15">
+        <v>1594233</v>
+      </c>
+      <c r="W33" s="15">
+        <v>266950989</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>863765</v>
+      </c>
+      <c r="E34" s="11">
+        <v>561321</v>
+      </c>
+      <c r="F34" s="11">
+        <v>561321</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4889555</v>
+      </c>
+      <c r="H34" s="11">
+        <v>4889555</v>
+      </c>
+      <c r="I34" s="11">
+        <v>6269716</v>
+      </c>
+      <c r="J34" s="11">
+        <v>1123135</v>
+      </c>
+      <c r="K34" s="11">
         <v>1888062</v>
       </c>
-      <c r="E34" s="11">
+      <c r="L34" s="11">
         <v>1926837</v>
       </c>
-      <c r="F34" s="11">
+      <c r="M34" s="11">
         <v>3631970</v>
       </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
+        <v>0</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>5525310</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1527353</v>
+      </c>
+      <c r="F35" s="15">
+        <v>5240825</v>
+      </c>
+      <c r="G35" s="15">
+        <v>4589770</v>
+      </c>
+      <c r="H35" s="15">
+        <v>5188476</v>
+      </c>
+      <c r="I35" s="15">
+        <v>5747305</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7321228</v>
+      </c>
+      <c r="K35" s="15">
         <v>9729034</v>
       </c>
-      <c r="E35" s="15">
+      <c r="L35" s="15">
         <v>9726577</v>
       </c>
-      <c r="F35" s="15">
+      <c r="M35" s="15">
         <v>13658231</v>
       </c>
-      <c r="G35" s="15">
+      <c r="N35" s="15">
         <v>19361032</v>
       </c>
-      <c r="H35" s="15">
+      <c r="O35" s="15">
         <v>24823561</v>
       </c>
-      <c r="I35" s="15">
+      <c r="P35" s="15">
         <v>18049956</v>
       </c>
-      <c r="J35" s="15">
-        <v>26966906</v>
-      </c>
-      <c r="K35" s="15">
+      <c r="Q35" s="15">
+        <v>17910882</v>
+      </c>
+      <c r="R35" s="15">
         <v>33806182</v>
       </c>
-      <c r="L35" s="15">
+      <c r="S35" s="15">
         <v>48243196</v>
       </c>
-      <c r="M35" s="15">
+      <c r="T35" s="15">
         <v>29378315</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U35" s="15">
+        <v>41347198</v>
+      </c>
+      <c r="V35" s="15">
+        <v>59596047</v>
+      </c>
+      <c r="W35" s="15">
+        <v>71540708</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1830,140 +2746,260 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>30008796</v>
+      </c>
+      <c r="E37" s="17">
+        <v>41610869</v>
+      </c>
+      <c r="F37" s="17">
+        <v>54091616</v>
+      </c>
+      <c r="G37" s="17">
+        <v>66494302</v>
+      </c>
+      <c r="H37" s="17">
+        <v>94601609</v>
+      </c>
+      <c r="I37" s="17">
+        <v>76267264</v>
+      </c>
+      <c r="J37" s="17">
+        <v>70211030</v>
+      </c>
+      <c r="K37" s="17">
         <v>127820765</v>
       </c>
-      <c r="E37" s="17">
+      <c r="L37" s="17">
         <v>140763039</v>
       </c>
-      <c r="F37" s="17">
+      <c r="M37" s="17">
         <v>112481781</v>
       </c>
-      <c r="G37" s="17">
+      <c r="N37" s="17">
         <v>146514433</v>
       </c>
-      <c r="H37" s="17">
+      <c r="O37" s="17">
         <v>216655496</v>
       </c>
-      <c r="I37" s="17">
+      <c r="P37" s="17">
         <v>245277798</v>
       </c>
-      <c r="J37" s="17">
-        <v>183704625</v>
-      </c>
-      <c r="K37" s="17">
+      <c r="Q37" s="17">
+        <v>183539809</v>
+      </c>
+      <c r="R37" s="17">
         <v>223629137</v>
       </c>
-      <c r="L37" s="17">
+      <c r="S37" s="17">
         <v>468892403</v>
       </c>
-      <c r="M37" s="17">
+      <c r="T37" s="17">
         <v>279363831</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U37" s="17">
+        <v>233755043</v>
+      </c>
+      <c r="V37" s="17">
+        <v>303309037</v>
+      </c>
+      <c r="W37" s="17">
+        <v>631644126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>6445130</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4850120</v>
+      </c>
+      <c r="F38" s="11">
+        <v>6116731</v>
+      </c>
+      <c r="G38" s="11">
+        <v>4193707</v>
+      </c>
+      <c r="H38" s="11">
+        <v>4753231</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2974722</v>
+      </c>
+      <c r="J38" s="11">
+        <v>4068101</v>
+      </c>
+      <c r="K38" s="11">
         <v>1488101</v>
       </c>
-      <c r="E38" s="11">
+      <c r="L38" s="11">
         <v>1488101</v>
       </c>
-      <c r="F38" s="11">
+      <c r="M38" s="11">
         <v>2308101</v>
       </c>
-      <c r="G38" s="11">
+      <c r="N38" s="11">
         <v>3608101</v>
       </c>
-      <c r="H38" s="11">
+      <c r="O38" s="11">
         <v>269947</v>
       </c>
-      <c r="I38" s="11">
+      <c r="P38" s="11">
         <v>269947</v>
       </c>
-      <c r="J38" s="11">
+      <c r="Q38" s="11">
         <v>192342</v>
       </c>
-      <c r="K38" s="11">
+      <c r="R38" s="11">
         <v>192343</v>
       </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>161597</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>4318827</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>4605135</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>4605135</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>1204180</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>1066303</v>
       </c>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>605460</v>
       </c>
       <c r="J40" s="11">
-        <v>0</v>
+        <v>605460</v>
       </c>
       <c r="K40" s="11">
         <v>0</v>
@@ -1974,118 +3010,238 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>3772184</v>
+      </c>
+      <c r="E41" s="15">
+        <v>4079939</v>
+      </c>
+      <c r="F41" s="15">
+        <v>4498941</v>
+      </c>
+      <c r="G41" s="15">
+        <v>4755943</v>
+      </c>
+      <c r="H41" s="15">
+        <v>5141413</v>
+      </c>
+      <c r="I41" s="15">
+        <v>5336645</v>
+      </c>
+      <c r="J41" s="15">
+        <v>5680792</v>
+      </c>
+      <c r="K41" s="15">
         <v>6210107</v>
       </c>
-      <c r="E41" s="15">
+      <c r="L41" s="15">
         <v>8131675</v>
       </c>
-      <c r="F41" s="15">
+      <c r="M41" s="15">
         <v>6953119</v>
       </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
         <v>10693559</v>
       </c>
-      <c r="H41" s="15">
+      <c r="O41" s="15">
         <v>8085681</v>
       </c>
-      <c r="I41" s="15">
+      <c r="P41" s="15">
         <v>8401380</v>
       </c>
-      <c r="J41" s="15">
+      <c r="Q41" s="15">
         <v>9338696</v>
       </c>
-      <c r="K41" s="15">
+      <c r="R41" s="15">
         <v>15814556</v>
       </c>
-      <c r="L41" s="15">
+      <c r="S41" s="15">
         <v>12594374</v>
       </c>
-      <c r="M41" s="15">
+      <c r="T41" s="15">
         <v>14424328</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U41" s="15">
+        <v>16127813</v>
+      </c>
+      <c r="V41" s="15">
+        <v>17369663</v>
+      </c>
+      <c r="W41" s="15">
+        <v>19018504</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>14536141</v>
+      </c>
+      <c r="E42" s="19">
+        <v>13535194</v>
+      </c>
+      <c r="F42" s="19">
+        <v>15220807</v>
+      </c>
+      <c r="G42" s="19">
+        <v>10153830</v>
+      </c>
+      <c r="H42" s="19">
+        <v>10960947</v>
+      </c>
+      <c r="I42" s="19">
+        <v>8916827</v>
+      </c>
+      <c r="J42" s="19">
+        <v>10354353</v>
+      </c>
+      <c r="K42" s="19">
         <v>7698208</v>
       </c>
-      <c r="E42" s="19">
+      <c r="L42" s="19">
         <v>9619776</v>
       </c>
-      <c r="F42" s="19">
+      <c r="M42" s="19">
         <v>9261220</v>
       </c>
-      <c r="G42" s="19">
+      <c r="N42" s="19">
         <v>14301660</v>
       </c>
-      <c r="H42" s="19">
+      <c r="O42" s="19">
         <v>8355628</v>
       </c>
-      <c r="I42" s="19">
+      <c r="P42" s="19">
         <v>8671327</v>
       </c>
-      <c r="J42" s="19">
+      <c r="Q42" s="19">
         <v>9531038</v>
       </c>
-      <c r="K42" s="19">
+      <c r="R42" s="19">
         <v>16006899</v>
       </c>
-      <c r="L42" s="19">
+      <c r="S42" s="19">
         <v>12594374</v>
       </c>
-      <c r="M42" s="19">
+      <c r="T42" s="19">
         <v>14424328</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U42" s="19">
+        <v>16127813</v>
+      </c>
+      <c r="V42" s="19">
+        <v>17369663</v>
+      </c>
+      <c r="W42" s="19">
+        <v>19180101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>44544937</v>
+      </c>
+      <c r="E43" s="17">
+        <v>55146063</v>
+      </c>
+      <c r="F43" s="17">
+        <v>69312423</v>
+      </c>
+      <c r="G43" s="17">
+        <v>76648132</v>
+      </c>
+      <c r="H43" s="17">
+        <v>105562556</v>
+      </c>
+      <c r="I43" s="17">
+        <v>85184091</v>
+      </c>
+      <c r="J43" s="17">
+        <v>80565383</v>
+      </c>
+      <c r="K43" s="17">
         <v>135518973</v>
       </c>
-      <c r="E43" s="17">
+      <c r="L43" s="17">
         <v>150382815</v>
       </c>
-      <c r="F43" s="17">
+      <c r="M43" s="17">
         <v>121743001</v>
       </c>
-      <c r="G43" s="17">
+      <c r="N43" s="17">
         <v>160816093</v>
       </c>
-      <c r="H43" s="17">
+      <c r="O43" s="17">
         <v>225011124</v>
       </c>
-      <c r="I43" s="17">
+      <c r="P43" s="17">
         <v>253949125</v>
       </c>
-      <c r="J43" s="17">
-        <v>193235663</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="Q43" s="17">
+        <v>193070847</v>
+      </c>
+      <c r="R43" s="17">
         <v>239636036</v>
       </c>
-      <c r="L43" s="17">
+      <c r="S43" s="17">
         <v>481486777</v>
       </c>
-      <c r="M43" s="17">
+      <c r="T43" s="17">
         <v>293788159</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U43" s="17">
+        <v>249882856</v>
+      </c>
+      <c r="V43" s="17">
+        <v>320678700</v>
+      </c>
+      <c r="W43" s="17">
+        <v>650824227</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2098,46 +3254,86 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>60000000</v>
+      </c>
+      <c r="E45" s="15">
+        <v>78000000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>78000000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>78000000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>78000000</v>
+      </c>
+      <c r="I45" s="15">
         <v>101400000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="J45" s="15">
         <v>101400000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
+        <v>101400000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>101400000</v>
+      </c>
+      <c r="M45" s="15">
         <v>200000000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="N45" s="15">
         <v>200000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="O45" s="15">
         <v>200000000</v>
       </c>
-      <c r="I45" s="15">
+      <c r="P45" s="15">
         <v>200000000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="Q45" s="15">
         <v>400000000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="R45" s="15">
         <v>400000000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="S45" s="15">
         <v>400000000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="T45" s="15">
         <v>400000000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U45" s="15">
+        <v>600000000</v>
+      </c>
+      <c r="V45" s="15">
+        <v>600000000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2170,46 +3366,106 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
         <v>98600000</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
         <v>200000000</v>
       </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2219,105 +3475,195 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>-11591922</v>
       </c>
-      <c r="G48" s="11">
+      <c r="N48" s="11">
         <v>-11591922</v>
       </c>
-      <c r="H48" s="11">
+      <c r="O48" s="11">
         <v>-12983119</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
         <v>-17399662</v>
       </c>
-      <c r="K48" s="11">
+      <c r="R48" s="11">
         <v>-19114056</v>
       </c>
-      <c r="L48" s="11">
+      <c r="S48" s="11">
         <v>-78591</v>
       </c>
-      <c r="M48" s="11">
+      <c r="T48" s="11">
         <v>-78591</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
         <v>200851</v>
       </c>
-      <c r="G49" s="15">
+      <c r="N49" s="15">
         <v>200851</v>
       </c>
-      <c r="H49" s="15">
+      <c r="O49" s="15">
         <v>204489</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
         <v>949933</v>
       </c>
-      <c r="K49" s="15">
+      <c r="R49" s="15">
         <v>949933</v>
       </c>
-      <c r="L49" s="15">
+      <c r="S49" s="15">
         <v>1208112</v>
       </c>
-      <c r="M49" s="15">
+      <c r="T49" s="15">
         <v>1208112</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>7800000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>7800000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>7800000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>7800000</v>
+      </c>
+      <c r="I50" s="11">
         <v>10140000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>10140000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
+        <v>10140000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>10140000</v>
+      </c>
+      <c r="M50" s="11">
         <v>20000000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="N50" s="11">
         <v>20000000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="O50" s="11">
         <v>20000000</v>
       </c>
-      <c r="I50" s="11">
+      <c r="P50" s="11">
         <v>20000000</v>
       </c>
-      <c r="J50" s="11">
+      <c r="Q50" s="11">
         <v>40000000</v>
       </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
         <v>40000000</v>
       </c>
-      <c r="L50" s="11">
+      <c r="S50" s="11">
         <v>40000000</v>
       </c>
-      <c r="M50" s="11">
+      <c r="T50" s="11">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>60000000</v>
+      </c>
+      <c r="V50" s="11">
+        <v>60000000</v>
+      </c>
+      <c r="W50" s="11">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2350,46 +3696,106 @@
       <c r="M51" s="15">
         <v>2635097</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="O51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="P51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="R51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="S51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="T51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="U51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="V51" s="15">
+        <v>2635097</v>
+      </c>
+      <c r="W51" s="15">
+        <v>2635097</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2422,46 +3828,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2494,116 +3960,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>44416348</v>
+      </c>
+      <c r="E56" s="11">
+        <v>53030248</v>
+      </c>
+      <c r="F56" s="11">
+        <v>89461979</v>
+      </c>
+      <c r="G56" s="11">
+        <v>103927405</v>
+      </c>
+      <c r="H56" s="11">
+        <v>132646163</v>
+      </c>
+      <c r="I56" s="11">
+        <v>132406533</v>
+      </c>
+      <c r="J56" s="11">
+        <v>171918517</v>
+      </c>
+      <c r="K56" s="11">
         <v>201930996</v>
       </c>
-      <c r="E56" s="11">
+      <c r="L56" s="11">
         <v>179979872</v>
       </c>
-      <c r="F56" s="11">
+      <c r="M56" s="11">
         <v>259054085</v>
       </c>
-      <c r="G56" s="11">
+      <c r="N56" s="11">
         <v>353809707</v>
       </c>
-      <c r="H56" s="11">
+      <c r="O56" s="11">
         <v>445845966</v>
       </c>
-      <c r="I56" s="11">
+      <c r="P56" s="11">
         <v>381288898</v>
       </c>
-      <c r="J56" s="11">
+      <c r="Q56" s="11">
         <v>483696876</v>
       </c>
-      <c r="K56" s="11">
+      <c r="R56" s="11">
         <v>606834930</v>
       </c>
-      <c r="L56" s="11">
+      <c r="S56" s="11">
         <v>425801622</v>
       </c>
-      <c r="M56" s="11">
+      <c r="T56" s="11">
         <v>513822161</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U56" s="11">
+        <v>484467980</v>
+      </c>
+      <c r="V56" s="11">
+        <v>635928717</v>
+      </c>
+      <c r="W56" s="11">
+        <v>520840750</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>131051445</v>
+      </c>
+      <c r="E57" s="17">
+        <v>141465345</v>
+      </c>
+      <c r="F57" s="17">
+        <v>177897076</v>
+      </c>
+      <c r="G57" s="17">
+        <v>192362502</v>
+      </c>
+      <c r="H57" s="17">
+        <v>221081260</v>
+      </c>
+      <c r="I57" s="17">
+        <v>246581630</v>
+      </c>
+      <c r="J57" s="17">
+        <v>286093614</v>
+      </c>
+      <c r="K57" s="17">
         <v>316106093</v>
       </c>
-      <c r="E57" s="17">
+      <c r="L57" s="17">
         <v>392754969</v>
       </c>
-      <c r="F57" s="17">
+      <c r="M57" s="17">
         <v>470298111</v>
       </c>
-      <c r="G57" s="17">
+      <c r="N57" s="17">
         <v>565053733</v>
       </c>
-      <c r="H57" s="17">
+      <c r="O57" s="17">
         <v>655702433</v>
       </c>
-      <c r="I57" s="17">
+      <c r="P57" s="17">
         <v>803923995</v>
       </c>
-      <c r="J57" s="17">
+      <c r="Q57" s="17">
         <v>909882244</v>
       </c>
-      <c r="K57" s="17">
+      <c r="R57" s="17">
         <v>1031305904</v>
       </c>
-      <c r="L57" s="17">
+      <c r="S57" s="17">
         <v>869566240</v>
       </c>
-      <c r="M57" s="17">
+      <c r="T57" s="17">
         <v>957586779</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U57" s="17">
+        <v>1147103077</v>
+      </c>
+      <c r="V57" s="17">
+        <v>1298563814</v>
+      </c>
+      <c r="W57" s="17">
+        <v>1183475847</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>175596382</v>
+      </c>
+      <c r="E58" s="19">
+        <v>196611408</v>
+      </c>
+      <c r="F58" s="19">
+        <v>247209499</v>
+      </c>
+      <c r="G58" s="19">
+        <v>269010634</v>
+      </c>
+      <c r="H58" s="19">
+        <v>326643816</v>
+      </c>
+      <c r="I58" s="19">
+        <v>331765721</v>
+      </c>
+      <c r="J58" s="19">
+        <v>366658997</v>
+      </c>
+      <c r="K58" s="19">
         <v>451625066</v>
       </c>
-      <c r="E58" s="19">
+      <c r="L58" s="19">
         <v>543137784</v>
       </c>
-      <c r="F58" s="19">
+      <c r="M58" s="19">
         <v>592041112</v>
       </c>
-      <c r="G58" s="19">
+      <c r="N58" s="19">
         <v>725869826</v>
       </c>
-      <c r="H58" s="19">
+      <c r="O58" s="19">
         <v>880713557</v>
       </c>
-      <c r="I58" s="19">
+      <c r="P58" s="19">
         <v>1057873120</v>
       </c>
-      <c r="J58" s="19">
-        <v>1103117907</v>
-      </c>
-      <c r="K58" s="19">
+      <c r="Q58" s="19">
+        <v>1102953091</v>
+      </c>
+      <c r="R58" s="19">
         <v>1270941940</v>
       </c>
-      <c r="L58" s="19">
+      <c r="S58" s="19">
         <v>1351053017</v>
       </c>
-      <c r="M58" s="19">
+      <c r="T58" s="19">
         <v>1251374938</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U58" s="19">
+        <v>1396985933</v>
+      </c>
+      <c r="V58" s="19">
+        <v>1619242514</v>
+      </c>
+      <c r="W58" s="19">
+        <v>1834300074</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2616,6 +4202,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
